--- a/data/factors/factor13.xlsx
+++ b/data/factors/factor13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA7565-5A04-49FE-8433-6766FAAF2CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED30C5-D1A9-4C2C-B74A-118313A82E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{023C54ED-C38E-4530-8EB9-72CB96CBF601}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>삼성전자</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>크래프톤</t>
-  </si>
-  <si>
-    <t>제이엘케이</t>
   </si>
   <si>
     <t>한국전력공사</t>
@@ -566,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBCDDB-A1BE-45EF-943A-8CB5BE9E9785}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -584,12 +581,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
@@ -599,52 +596,52 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
@@ -668,28 +665,28 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
+      <c r="A20" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
@@ -699,85 +696,80 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
+      <c r="A26" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
+      <c r="A28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
+      <c r="A29" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
+      <c r="A33" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
+      <c r="A36" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
+      <c r="A37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A38" s="2" t="s">
-        <v>34</v>
+      <c r="A38" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A40" s="1"/>
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A39">
-    <sortCondition ref="A1:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A40">
+    <sortCondition ref="A4:A40"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
